--- a/generation.xlsx
+++ b/generation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7833A016-B2FB-42FC-A260-3462713593DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50956AE-C91E-4B78-9D3E-C48D41B9FB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="binomial fequency" sheetId="5" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="118">
   <si>
     <t>leisure</t>
   </si>
@@ -478,6 +478,24 @@
   <si>
     <t>b</t>
   </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
 </sst>
 </file>
 
@@ -548,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,6 +593,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -650,9 +671,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -690,9 +711,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,26 +746,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,26 +781,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -970,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="96" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2765,6 +2752,177 @@
       <c r="N55" s="12">
         <f t="shared" si="7"/>
         <v>0.8423052112504289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="H65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" t="s">
+        <v>117</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>15</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
